--- a/FantaSoccer/MyModule/SerieA/Results2020_until_round_16.xlsx
+++ b/FantaSoccer/MyModule/SerieA/Results2020_until_round_16.xlsx
@@ -2835,16 +2835,16 @@
         <v>26</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>0.418061</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1.28447</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
